--- a/Fuctionality&Requirements/ProgramFunctionality/WorkSupplierTree.xlsx
+++ b/Fuctionality&Requirements/ProgramFunctionality/WorkSupplierTree.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188F8F5E-AE4F-4238-9B39-950E8B888A5B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CADDFFB-29CC-4245-8CE0-5FD121EF17B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11880" yWindow="735" windowWidth="14595" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreeMasterDesign" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="110">
   <si>
     <t>№</t>
   </si>
@@ -70,9 +70,6 @@
     <t>The user should be able to move the program window.</t>
   </si>
   <si>
-    <t>The user shoult be able to call the context menu byt clicking RMB on any element.</t>
-  </si>
-  <si>
     <t>Design</t>
   </si>
   <si>
@@ -262,9 +259,6 @@
     <t>The program window should be refreshed if the user clicks on the "Refresh" button on the ToolBar.</t>
   </si>
   <si>
-    <t>The "API PRO - work supplier tree" window should close if the user clicks on the "Exit" button on the ToolBar.</t>
-  </si>
-  <si>
     <t>The highlighted element should be selected and the "API PRO - work supplier tree" window should close if the user clicks on the "Select" button.</t>
   </si>
   <si>
@@ -286,9 +280,6 @@
     <t>The element should displayed like folder if this elemnt has any subelement.</t>
   </si>
   <si>
-    <t>If the user clicks RMB on the element the context menu should appear.</t>
-  </si>
-  <si>
     <t>The context menu should should have the next items:</t>
   </si>
   <si>
@@ -338,6 +329,45 @@
   </si>
   <si>
     <t>The "Auto find" option should turned off if the user clicks on the "Auto find" button  while the "Key" field was empty.</t>
+  </si>
+  <si>
+    <t>The user shoult be able to call the context menu by clicking RMB on any element.</t>
+  </si>
+  <si>
+    <t>The "Find work supplier" window should open if the user clicks on the "Find" button.</t>
+  </si>
+  <si>
+    <t>If the user clicks RMB on the element of the tree the context menu should appear.</t>
+  </si>
+  <si>
+    <t>If the user clicks RMB on the element of the table the context menu should appear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - New</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Delete</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "New" item of the context menu the next program should be opened:</t>
+  </si>
+  <si>
+    <t>The program should be opened in the "New" mode.</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "Edit" item of the context menu the next program should be opened:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - (maint) work_supplier</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "Delete" item of the context menu the "Question" window should appear.  If the user click on the "Yes" button in the "Question" window then the selected work supplier should be deleted.</t>
+  </si>
+  <si>
+    <t>If the user clicks on the "Document" item of the context menu the next program should be opened:</t>
   </si>
 </sst>
 </file>
@@ -389,7 +419,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -551,12 +581,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -603,62 +721,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -941,17 +1111,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C95"/>
+  <dimension ref="A2:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -978,53 +1148,71 @@
       <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="28" t="str">
+        <f t="shared" ref="C5:C10" si="0">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
+        <v>C85816</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>C85816</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>C85816</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>C85816</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>C85816</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
+        <v>C85816</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="35"/>
@@ -1032,195 +1220,228 @@
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="28" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
+        <v>C85816</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
+        <v>C85816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="40" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
+        <v>C85816</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="32"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="31"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="32"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="31"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="32"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="31"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="32"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="40" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
+        <v>C85816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="32"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="31"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="31"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="32"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="5" t="s">
+      <c r="C22" s="31"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="31"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="31"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="32"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="32"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="32"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="32"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="32"/>
+      <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
+        <v>C85816</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
+        <v>C85816</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
+        <v>C85816</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
+        <v>C85816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="40" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
+        <v>C85816</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+      <c r="B31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="32"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="31"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="32"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="11" t="s">
+      <c r="C32" s="31"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="32"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="11" t="s">
+      <c r="C33" s="31"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="32"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="11" t="s">
+      <c r="C34" s="31"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="32"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" t="s">
+      <c r="C35" s="31"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
+      <c r="B36" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="32"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="11" t="s">
+      <c r="C36" s="31"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="29"/>
+      <c r="B37" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="32"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="32"/>
+      <c r="C37" s="31"/>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
+        <v>C85816</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16"/>
       <c r="B39" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="C39" s="41" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
+        <v>C85816</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="35"/>
@@ -1228,390 +1449,629 @@
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="28" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85817","C85817")</f>
+        <v>C85817</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="29"/>
+      <c r="B42" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="9"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="43" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85817","C85817")</f>
+        <v>C85817</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
+      <c r="B43" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="32"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="42"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="29"/>
+      <c r="B44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="32"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="42"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="29"/>
+      <c r="B45" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="32"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="42"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
+      <c r="B46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="32"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
-      <c r="B46" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="32"/>
+      <c r="C46" s="42"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="32"/>
+        <v>22</v>
+      </c>
+      <c r="C47" s="42"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="C48" s="37"/>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="C49" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85817","C85817")</f>
+        <v>C85817</v>
+      </c>
     </row>
     <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="C50" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85817","C85817")</f>
+        <v>C85817</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="C51" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85817","C85817")</f>
+        <v>C85817</v>
+      </c>
     </row>
     <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="C52" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85817","C85817")</f>
+        <v>C85817</v>
+      </c>
     </row>
     <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="C53" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85817","C85817")</f>
+        <v>C85817</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C54" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85817","C85817")</f>
+        <v>C85817</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85818","C85818")</f>
+        <v>C85818</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="29"/>
+      <c r="B56" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="40" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85818","C85818")</f>
+        <v>C85818</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="29"/>
+      <c r="B57" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="32"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="5" t="s">
+      <c r="C57" s="31"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="29"/>
+      <c r="B58" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="32"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="5" t="s">
+      <c r="C58" s="31"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="29"/>
+      <c r="B59" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="31"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="29"/>
+      <c r="B60" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="32"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="32"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
-      <c r="B60" s="5" t="s">
+      <c r="C60" s="31"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="30"/>
+      <c r="B61" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="32"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="26"/>
+      <c r="C61" s="32"/>
     </row>
     <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
-      <c r="B62" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="6"/>
+      <c r="B62" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85818","C85818")</f>
+        <v>C85818</v>
+      </c>
     </row>
     <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="C63" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85818","C85818")</f>
+        <v>C85818</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-      <c r="B64" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64" s="6"/>
+      <c r="B64" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85818","C85818")</f>
+        <v>C85818</v>
+      </c>
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="C65" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85818","C85818")</f>
+        <v>C85818</v>
+      </c>
     </row>
     <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="C66" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85818","C85818")</f>
+        <v>C85818</v>
+      </c>
     </row>
     <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="C67" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85818","C85818")</f>
+        <v>C85818</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="26"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="38"/>
+      <c r="B69" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="18"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="31"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="38"/>
+      <c r="B70" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="30"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
-      <c r="B70" s="5" t="s">
+      <c r="C70" s="31"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="38"/>
+      <c r="B71" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="30"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
-      <c r="B71" s="5" t="s">
+      <c r="C71" s="31"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="38"/>
+      <c r="B72" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C71" s="30"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="5" t="s">
+      <c r="C72" s="31"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="39"/>
+      <c r="B73" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="30"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
-      <c r="B73" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" s="31"/>
+      <c r="C73" s="32"/>
     </row>
     <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="18"/>
+        <v>66</v>
+      </c>
+      <c r="C74" s="26"/>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" s="18"/>
+        <v>67</v>
+      </c>
+      <c r="C75" s="26"/>
     </row>
     <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
-      <c r="B76" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" s="18"/>
+      <c r="B76" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="26"/>
     </row>
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C77" s="18"/>
+        <v>69</v>
+      </c>
+      <c r="C77" s="26"/>
     </row>
     <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C78" s="19"/>
+        <v>70</v>
+      </c>
+      <c r="C78" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85819","C85819")</f>
+        <v>C85819</v>
+      </c>
     </row>
     <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="C79" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85819","C85819")</f>
+        <v>C85819</v>
+      </c>
     </row>
     <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C80" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="C80" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85819","C85819")</f>
+        <v>C85819</v>
+      </c>
     </row>
     <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="C81" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85819","C85819")</f>
+        <v>C85819</v>
+      </c>
     </row>
     <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C82" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="C82" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85819","C85819")</f>
+        <v>C85819</v>
+      </c>
     </row>
     <row r="83" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C83" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="C83" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85819","C85819")</f>
+        <v>C85819</v>
+      </c>
     </row>
     <row r="84" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B84" s="34"/>
       <c r="C84" s="35"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
-      <c r="B85" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C85" s="9"/>
+      <c r="B85" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="28" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
+        <v>C85816</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
-      <c r="B86" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C86" s="6"/>
+      <c r="B86" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
+        <v>C85816</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
-      <c r="B87" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C87" s="6"/>
+      <c r="B87" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
+        <v>C85816</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" s="18" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85820","C85820")</f>
+        <v>C85820</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="29"/>
+      <c r="B89" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" s="40" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85820","C85820")</f>
+        <v>C85820</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="29"/>
+      <c r="B90" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="31"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="29"/>
+      <c r="B91" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C88" s="6"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
-      <c r="B89" s="23" t="s">
+      <c r="C91" s="31"/>
+    </row>
+    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="29"/>
+      <c r="B92" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C89" s="32"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
-      <c r="B90" s="23" t="s">
+      <c r="C92" s="40" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85820","C85820")</f>
+        <v>C85820</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="29"/>
+      <c r="B93" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C90" s="32"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
-      <c r="B91" s="23" t="s">
+      <c r="C93" s="31"/>
+    </row>
+    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="30"/>
+      <c r="B94" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="32"/>
-    </row>
-    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
-      <c r="B92" s="24" t="s">
+      <c r="C94" s="43" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85820","C85820")</f>
+        <v>C85820</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="36"/>
+      <c r="B95" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C92" s="32"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
-      <c r="B93" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C93" s="32"/>
-    </row>
-    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
-      <c r="B94" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C94" s="26"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="27"/>
-      <c r="B95" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C95" s="27"/>
+      <c r="C95" s="37"/>
+    </row>
+    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="44"/>
+      <c r="B96" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" s="52" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85820","C85820")</f>
+        <v>C85820</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="45"/>
+      <c r="B97" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C97" s="46"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="45"/>
+      <c r="B98" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" s="46"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="45"/>
+      <c r="B99" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99" s="46"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="45"/>
+      <c r="B100" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" s="46"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="47"/>
+      <c r="B101" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C101" s="48"/>
+    </row>
+    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="30"/>
+      <c r="B102" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C102" s="43" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85820","C85820")</f>
+        <v>C85820</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="36"/>
+      <c r="B103" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C103" s="37"/>
+    </row>
+    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="30"/>
+      <c r="B104" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" s="43" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85820","C85820")</f>
+        <v>C85820</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="50"/>
+      <c r="B105" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C105" s="42"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="36"/>
+      <c r="B106" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C106" s="37"/>
+    </row>
+    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="30"/>
+      <c r="B107" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" s="43" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85820","C85820")</f>
+        <v>C85820</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="36"/>
+      <c r="B108" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" s="37"/>
+    </row>
+    <row r="109" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="51"/>
+      <c r="B109" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C109" s="53" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85820","C85820")</f>
+        <v>C85820</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="44"/>
+      <c r="B110" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C110" s="52" t="str">
+        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85820","C85820")</f>
+        <v>C85820</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="47"/>
+      <c r="B111" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C111" s="48"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="32">
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="A96:A101"/>
+    <mergeCell ref="C96:C101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="A89:A91"/>
     <mergeCell ref="A56:A61"/>
     <mergeCell ref="C56:C61"/>
     <mergeCell ref="A4:C4"/>
@@ -1624,16 +2084,7 @@
     <mergeCell ref="C30:C37"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A42:A48"/>
-    <mergeCell ref="C42:C47"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="C42:C48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1670,70 +2121,70 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="29"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="29"/>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="32"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="32"/>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="32"/>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C13" s="6"/>
     </row>

--- a/Fuctionality&Requirements/ProgramFunctionality/WorkSupplierTree.xlsx
+++ b/Fuctionality&Requirements/ProgramFunctionality/WorkSupplierTree.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CADDFFB-29CC-4245-8CE0-5FD121EF17B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6ED839-4FC3-410C-BC56-BE3DDA7E5DE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="735" windowWidth="14595" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="16485" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreeMasterDesign" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
   <si>
     <t>№</t>
   </si>
@@ -292,15 +292,9 @@
     <t>If the user clicks on the "View" item of the context menu the next program should be opened:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (maint) work_supplier </t>
-  </si>
-  <si>
     <t>If the user clicks on the "Documents" item of the context menu the next program should be opened:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) drawing_combination</t>
-  </si>
-  <si>
     <t>The user should be able to move the "Find work supplier" window.</t>
   </si>
   <si>
@@ -359,9 +353,6 @@
   </si>
   <si>
     <t>If the user clicks on the "Edit" item of the context menu the next program should be opened:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (maint) work_supplier</t>
   </si>
   <si>
     <t>If the user clicks on the "Delete" item of the context menu the "Question" window should appear.  If the user click on the "Yes" button in the "Question" window then the selected work supplier should be deleted.</t>
@@ -674,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -702,19 +693,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -724,22 +712,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -754,81 +730,84 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1113,15 +1092,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1137,19 +1116,19 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="28" t="str">
-        <f t="shared" ref="C5:C10" si="0">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
+      <c r="C5" s="23" t="str">
+        <f t="shared" ref="C5:C9" si="0">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
         <v>C85816</v>
       </c>
     </row>
@@ -1158,7 +1137,7 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="18" t="str">
+      <c r="C6" s="17" t="str">
         <f t="shared" si="0"/>
         <v>C85816</v>
       </c>
@@ -1168,7 +1147,7 @@
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="18" t="str">
+      <c r="C7" s="17" t="str">
         <f t="shared" si="0"/>
         <v>C85816</v>
       </c>
@@ -1178,7 +1157,7 @@
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="18" t="str">
+      <c r="C8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>C85816</v>
       </c>
@@ -1188,7 +1167,7 @@
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="18" t="str">
+      <c r="C9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>C85816</v>
       </c>
@@ -1198,7 +1177,7 @@
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="18" t="str">
+      <c r="C10" s="17" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
         <v>C85816</v>
       </c>
@@ -1206,430 +1185,430 @@
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="18"/>
+        <v>95</v>
+      </c>
+      <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="28" t="str">
+      <c r="C13" s="23" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
         <v>C85816</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="18" t="str">
+      <c r="C14" s="17" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
         <v>C85816</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="40" t="str">
+      <c r="C15" s="48" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
         <v>C85816</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="31"/>
+      <c r="C16" s="42"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="31"/>
+      <c r="C17" s="42"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="42"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="40" t="str">
+      <c r="C19" s="48" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
         <v>C85816</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="31"/>
+      <c r="C20" s="42"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="31"/>
+      <c r="C21" s="42"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="31"/>
+      <c r="C22" s="42"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="42"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="31"/>
+      <c r="C24" s="42"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="42"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="18" t="str">
+      <c r="C26" s="17" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
         <v>C85816</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="18" t="str">
+      <c r="C27" s="17" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
         <v>C85816</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="18" t="str">
+      <c r="C28" s="17" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
         <v>C85816</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="18" t="str">
+      <c r="C29" s="17" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
         <v>C85816</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="40" t="str">
+      <c r="C30" s="48" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
         <v>C85816</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="31"/>
+      <c r="C31" s="42"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="47"/>
+      <c r="B32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="31"/>
+      <c r="C32" s="42"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="47"/>
+      <c r="B33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="31"/>
+      <c r="C33" s="42"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="47"/>
+      <c r="B34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="31"/>
+      <c r="C34" s="42"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="31"/>
+      <c r="C35" s="42"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="47"/>
+      <c r="B36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="31"/>
+      <c r="C36" s="42"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="47"/>
+      <c r="B37" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="31"/>
+      <c r="C37" s="42"/>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="18" t="str">
+      <c r="C38" s="17" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
         <v>C85816</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17" t="s">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="41" t="str">
+      <c r="C39" s="24" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
         <v>C85816</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="35"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="28" t="str">
+      <c r="C41" s="23" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85817","C85817")</f>
         <v>C85817</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="43" t="str">
+      <c r="C42" s="30" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85817","C85817")</f>
         <v>C85817</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="42"/>
+      <c r="C43" s="39"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="42"/>
+      <c r="C44" s="39"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="42"/>
+      <c r="C45" s="39"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="42"/>
+      <c r="C46" s="39"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="42"/>
+      <c r="C47" s="39"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="37"/>
+      <c r="C48" s="31"/>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="18" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85817","C85817")</f>
+      <c r="C49" s="17" t="str">
+        <f t="shared" ref="C49:C54" si="1">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85817","C85817")</f>
         <v>C85817</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="18" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85817","C85817")</f>
+      <c r="C50" s="17" t="str">
+        <f t="shared" si="1"/>
         <v>C85817</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="18" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85817","C85817")</f>
+      <c r="C51" s="17" t="str">
+        <f t="shared" si="1"/>
         <v>C85817</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="18" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85817","C85817")</f>
+      <c r="C52" s="17" t="str">
+        <f t="shared" si="1"/>
         <v>C85817</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="18" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85817","C85817")</f>
+      <c r="C53" s="17" t="str">
+        <f t="shared" si="1"/>
         <v>C85817</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="18" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85817","C85817")</f>
+      <c r="C54" s="17" t="str">
+        <f t="shared" si="1"/>
         <v>C85817</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="18" t="str">
+      <c r="C55" s="17" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85818","C85818")</f>
         <v>C85818</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="40" t="str">
+      <c r="C56" s="48" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85818","C85818")</f>
         <v>C85818</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
+      <c r="A57" s="47"/>
       <c r="B57" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="31"/>
+      <c r="C57" s="42"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
+      <c r="A58" s="47"/>
       <c r="B58" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="31"/>
+      <c r="C58" s="42"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="31"/>
+      <c r="C59" s="42"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
+      <c r="A60" s="47"/>
       <c r="B60" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="31"/>
+      <c r="C60" s="42"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C61" s="32"/>
+      <c r="C61" s="43"/>
     </row>
     <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="18" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85818","C85818")</f>
+      <c r="C62" s="17" t="str">
+        <f t="shared" ref="C62:C67" si="2">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85818","C85818")</f>
         <v>C85818</v>
       </c>
     </row>
@@ -1638,18 +1617,18 @@
       <c r="B63" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="18" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85818","C85818")</f>
+      <c r="C63" s="17" t="str">
+        <f t="shared" si="2"/>
         <v>C85818</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="18" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85818","C85818")</f>
+      <c r="C64" s="17" t="str">
+        <f t="shared" si="2"/>
         <v>C85818</v>
       </c>
     </row>
@@ -1658,8 +1637,8 @@
       <c r="B65" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C65" s="18" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85818","C85818")</f>
+      <c r="C65" s="17" t="str">
+        <f t="shared" si="2"/>
         <v>C85818</v>
       </c>
     </row>
@@ -1668,8 +1647,8 @@
       <c r="B66" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="18" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85818","C85818")</f>
+      <c r="C66" s="17" t="str">
+        <f t="shared" si="2"/>
         <v>C85818</v>
       </c>
     </row>
@@ -1678,8 +1657,8 @@
       <c r="B67" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="18" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85818","C85818")</f>
+      <c r="C67" s="17" t="str">
+        <f t="shared" si="2"/>
         <v>C85818</v>
       </c>
     </row>
@@ -1688,98 +1667,98 @@
       <c r="B68" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="26"/>
+      <c r="C68" s="21"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="38"/>
+      <c r="A69" s="40"/>
       <c r="B69" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="31"/>
+      <c r="C69" s="42"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="38"/>
+      <c r="A70" s="40"/>
       <c r="B70" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="31"/>
+      <c r="C70" s="42"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="38"/>
+      <c r="A71" s="40"/>
       <c r="B71" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="31"/>
+      <c r="C71" s="42"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="38"/>
+      <c r="A72" s="40"/>
       <c r="B72" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="31"/>
+      <c r="C72" s="42"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
+      <c r="A73" s="41"/>
       <c r="B73" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="32"/>
+      <c r="C73" s="43"/>
     </row>
     <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="26"/>
+      <c r="C74" s="21"/>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="26"/>
+      <c r="C75" s="21"/>
     </row>
     <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="26"/>
+      <c r="C76" s="21"/>
     </row>
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="26"/>
+      <c r="C77" s="21"/>
     </row>
     <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="18" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85819","C85819")</f>
+      <c r="C78" s="17" t="str">
+        <f t="shared" ref="C78:C83" si="3">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85819","C85819")</f>
         <v>C85819</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="18" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85819","C85819")</f>
+      <c r="C79" s="17" t="str">
+        <f t="shared" si="3"/>
         <v>C85819</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
-      <c r="B80" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C80" s="18" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85819","C85819")</f>
+      <c r="B80" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="17" t="str">
+        <f t="shared" si="3"/>
         <v>C85819</v>
       </c>
     </row>
@@ -1788,8 +1767,8 @@
       <c r="B81" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C81" s="18" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85819","C85819")</f>
+      <c r="C81" s="17" t="str">
+        <f t="shared" si="3"/>
         <v>C85819</v>
       </c>
     </row>
@@ -1798,8 +1777,8 @@
       <c r="B82" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C82" s="18" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85819","C85819")</f>
+      <c r="C82" s="17" t="str">
+        <f t="shared" si="3"/>
         <v>C85819</v>
       </c>
     </row>
@@ -1808,270 +1787,257 @@
       <c r="B83" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C83" s="18" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85819","C85819")</f>
+      <c r="C83" s="17" t="str">
+        <f t="shared" si="3"/>
         <v>C85819</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="33" t="s">
+      <c r="A84" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B84" s="34"/>
-      <c r="C84" s="35"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="46"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
-      <c r="B85" s="25" t="s">
+      <c r="B85" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C85" s="28" t="str">
+      <c r="C85" s="23" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
         <v>C85816</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C86" s="18" t="str">
+      <c r="C86" s="17" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
         <v>C85816</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C87" s="18" t="str">
+      <c r="C87" s="17" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85816","C85816")</f>
         <v>C85816</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
-      <c r="B88" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C88" s="18" t="str">
+      <c r="B88" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="17" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85820","C85820")</f>
         <v>C85820</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="29"/>
-      <c r="B89" s="22" t="s">
+      <c r="A89" s="47"/>
+      <c r="B89" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C89" s="40" t="str">
+      <c r="C89" s="48" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85820","C85820")</f>
         <v>C85820</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="29"/>
-      <c r="B90" s="22" t="s">
+      <c r="A90" s="47"/>
+      <c r="B90" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C90" s="31"/>
+      <c r="C90" s="42"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
-      <c r="B91" s="22" t="s">
+      <c r="A91" s="47"/>
+      <c r="B91" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C91" s="31"/>
+      <c r="C91" s="42"/>
     </row>
     <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="29"/>
-      <c r="B92" s="23" t="s">
+      <c r="A92" s="47"/>
+      <c r="B92" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C92" s="40" t="str">
+      <c r="C92" s="48" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85820","C85820")</f>
         <v>C85820</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="29"/>
-      <c r="B93" s="24" t="s">
+      <c r="A93" s="47"/>
+      <c r="B93" s="49" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1491"," - (maint) work_supplier")</f>
+        <v xml:space="preserve"> - (maint) work_supplier</v>
+      </c>
+      <c r="C93" s="42"/>
+    </row>
+    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="28"/>
+      <c r="B94" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C93" s="31"/>
-    </row>
-    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
-      <c r="B94" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C94" s="43" t="str">
+      <c r="C94" s="30" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85820","C85820")</f>
         <v>C85820</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="36"/>
-      <c r="B95" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C95" s="37"/>
+      <c r="A95" s="29"/>
+      <c r="B95" s="49" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B306"," - (browse) drawing_combination")</f>
+        <v xml:space="preserve"> - (browse) drawing_combination</v>
+      </c>
+      <c r="C95" s="31"/>
     </row>
     <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="44"/>
-      <c r="B96" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C96" s="52" t="str">
+      <c r="A96" s="32"/>
+      <c r="B96" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" s="34" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85820","C85820")</f>
         <v>C85820</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="45"/>
-      <c r="B97" s="22" t="s">
+      <c r="A97" s="36"/>
+      <c r="B97" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C97" s="46"/>
+      <c r="C97" s="37"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="45"/>
-      <c r="B98" s="22" t="s">
+      <c r="A98" s="36"/>
+      <c r="B98" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="37"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="36"/>
+      <c r="B99" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="37"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="36"/>
+      <c r="B100" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C98" s="46"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="45"/>
-      <c r="B99" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C99" s="46"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="45"/>
-      <c r="B100" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C100" s="46"/>
+      <c r="C100" s="37"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="47"/>
-      <c r="B101" s="24" t="s">
+      <c r="A101" s="33"/>
+      <c r="B101" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C101" s="48"/>
+      <c r="C101" s="35"/>
     </row>
     <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="30"/>
-      <c r="B102" s="17" t="s">
+      <c r="A102" s="28"/>
+      <c r="B102" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C102" s="43" t="str">
+      <c r="C102" s="30" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85820","C85820")</f>
         <v>C85820</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="36"/>
-      <c r="B103" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C103" s="37"/>
+      <c r="A103" s="29"/>
+      <c r="B103" s="49" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1491"," - (maint) work_supplier")</f>
+        <v xml:space="preserve"> - (maint) work_supplier</v>
+      </c>
+      <c r="C103" s="31"/>
     </row>
     <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="30"/>
-      <c r="B104" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C104" s="43" t="str">
+      <c r="A104" s="28"/>
+      <c r="B104" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C104" s="30" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85820","C85820")</f>
         <v>C85820</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="50"/>
-      <c r="B105" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C105" s="42"/>
+      <c r="A105" s="38"/>
+      <c r="B105" s="50" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1491"," - (maint) work_supplier")</f>
+        <v xml:space="preserve"> - (maint) work_supplier</v>
+      </c>
+      <c r="C105" s="39"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="36"/>
-      <c r="B106" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C106" s="37"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" s="31"/>
     </row>
     <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
-      <c r="B107" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C107" s="43" t="str">
+      <c r="A107" s="28"/>
+      <c r="B107" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" s="30" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85820","C85820")</f>
         <v>C85820</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="36"/>
-      <c r="B108" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C108" s="37"/>
+      <c r="A108" s="29"/>
+      <c r="B108" s="49" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1491"," - (maint) work_supplier")</f>
+        <v xml:space="preserve"> - (maint) work_supplier</v>
+      </c>
+      <c r="C108" s="31"/>
     </row>
     <row r="109" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="51"/>
+      <c r="A109" s="25"/>
       <c r="B109" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C109" s="53" t="str">
+        <v>105</v>
+      </c>
+      <c r="C109" s="26" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85820","C85820")</f>
         <v>C85820</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="44"/>
-      <c r="B110" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C110" s="52" t="str">
+      <c r="A110" s="32"/>
+      <c r="B110" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C110" s="34" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85820","C85820")</f>
         <v>C85820</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="47"/>
-      <c r="B111" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C111" s="48"/>
+      <c r="A111" s="33"/>
+      <c r="B111" s="49" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B306"," - (browse) drawing_combination")</f>
+        <v xml:space="preserve"> - (browse) drawing_combination</v>
+      </c>
+      <c r="C111" s="35"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C112" s="54"/>
+      <c r="C112" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="A96:A101"/>
-    <mergeCell ref="C96:C101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="A89:A91"/>
     <mergeCell ref="A56:A61"/>
     <mergeCell ref="C56:C61"/>
     <mergeCell ref="A4:C4"/>
@@ -2085,6 +2051,25 @@
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A42:A48"/>
     <mergeCell ref="C42:C48"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="A96:A101"/>
+    <mergeCell ref="C96:C101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="C104:C106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2120,71 +2105,71 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
-      <c r="B4" s="12" t="s">
-        <v>87</v>
+      <c r="B4" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="47"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="5" t="s">
+      <c r="C7" s="47"/>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="29"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="29"/>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="47"/>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="13" t="s">
-        <v>92</v>
+      <c r="B9" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="13" t="s">
-        <v>93</v>
+      <c r="B10" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="6"/>
     </row>
